--- a/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="978">
   <si>
     <t xml:space="preserve">102_BY_T00_GF</t>
   </si>
@@ -3059,7 +3059,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="G1:K10 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3671,7 +3671,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="G1:K10 F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3983,7 +3983,7 @@
   <dimension ref="A1:L296"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G1:K10 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11354,10 +11354,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11378,10 +11378,25 @@
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>67</v>
@@ -11395,10 +11410,29 @@
       <c r="E2" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">B2/B$11*100</f>
+        <v>32.3671497584541</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">C2/C$11*100</f>
+        <v>26.8518518518519</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">D2/D$11*100</f>
+        <v>26.3005780346821</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">E2/E$11*100</f>
+        <v>27.4336283185841</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>42</v>
@@ -11412,10 +11446,29 @@
       <c r="E3" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">B3/B$11*100</f>
+        <v>20.2898550724638</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">C3/C$11*100</f>
+        <v>23.1481481481481</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">D3/D$11*100</f>
+        <v>22.2543352601156</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">E3/E$11*100</f>
+        <v>25.6637168141593</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>41</v>
@@ -11429,10 +11482,29 @@
       <c r="E4" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">B4/B$11*100</f>
+        <v>19.8067632850242</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">C4/C$11*100</f>
+        <v>15.7407407407407</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">D4/D$11*100</f>
+        <v>21.9653179190751</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">E4/E$11*100</f>
+        <v>21.2389380530973</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12</v>
@@ -11446,10 +11518,29 @@
       <c r="E5" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">B5/B$11*100</f>
+        <v>5.79710144927536</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">C5/C$11*100</f>
+        <v>6.48148148148148</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">D5/D$11*100</f>
+        <v>4.04624277456647</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">E5/E$11*100</f>
+        <v>7.9646017699115</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>12</v>
@@ -11463,10 +11554,29 @@
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">B6/B$11*100</f>
+        <v>5.79710144927536</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">C6/C$11*100</f>
+        <v>7.40740740740741</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">D6/D$11*100</f>
+        <v>4.91329479768786</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">E6/E$11*100</f>
+        <v>5.30973451327434</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>11</v>
@@ -11480,10 +11590,29 @@
       <c r="E7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">B7/B$11*100</f>
+        <v>5.31400966183575</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">C7/C$11*100</f>
+        <v>4.62962962962963</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">D7/D$11*100</f>
+        <v>6.06936416184971</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">E7/E$11*100</f>
+        <v>2.65486725663717</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
@@ -11497,10 +11626,29 @@
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">B8/B$11*100</f>
+        <v>4.83091787439614</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">C8/C$11*100</f>
+        <v>6.48148148148148</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">D8/D$11*100</f>
+        <v>5.78034682080925</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">E8/E$11*100</f>
+        <v>2.65486725663717</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
@@ -11514,10 +11662,29 @@
       <c r="E9" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">B9/B$11*100</f>
+        <v>3.86473429951691</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">C9/C$11*100</f>
+        <v>4.62962962962963</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">D9/D$11*100</f>
+        <v>5.78034682080925</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">E9/E$11*100</f>
+        <v>3.53982300884956</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
@@ -11530,6 +11697,46 @@
       </c>
       <c r="E10" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">B10/B$11*100</f>
+        <v>1.93236714975845</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">C10/C$11*100</f>
+        <v>4.62962962962963</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">D10/D$11*100</f>
+        <v>2.89017341040462</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">E10/E$11*100</f>
+        <v>3.53982300884956</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SUM(B2:B10)</f>
+        <v>207</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">SUM(C2:C10)</f>
+        <v>108</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(D2:D10)</f>
+        <v>346</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUM(E2:E10)</f>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
@@ -11511,7 +11511,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
@@ -2963,8 +2963,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -3031,12 +3032,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3063,7 +3068,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3656,7 +3661,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3675,7 +3680,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3968,7 +3973,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3987,7 +3992,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
@@ -3995,7 +4000,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="43.19"/>
@@ -4426,14 +4431,14 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <f aca="false">SUM(A33:A34)</f>
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -4535,7 +4540,7 @@
       <c r="I14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">SUM(J20:J28)</f>
         <v>10</v>
       </c>
@@ -4594,7 +4599,7 @@
       <c r="C16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4603,7 +4608,7 @@
       <c r="F16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -4612,7 +4617,7 @@
       <c r="I16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4630,7 +4635,7 @@
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <f aca="false">SUM(D50:D56)</f>
         <v>23</v>
       </c>
@@ -4638,18 +4643,18 @@
       <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <f aca="false">SUM(G50:G56)</f>
         <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="2" t="n">
         <f aca="false">SUM(J50:J56)</f>
         <v>22</v>
       </c>
-      <c r="K17" s="0"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1" t="s">
         <v>94</v>
       </c>
@@ -4682,9 +4687,9 @@
       <c r="I19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -4734,7 +4739,7 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="0"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1" t="n">
         <v>4</v>
       </c>
@@ -5114,7 +5119,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="0"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -5346,9 +5351,9 @@
       <c r="I45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1"/>
@@ -5406,12 +5411,12 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -9434,9 +9439,9 @@
       <c r="I155" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -9719,9 +9724,9 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
       <c r="G170" s="1" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +11493,14 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G306" s="0"/>
-      <c r="H306" s="0"/>
-      <c r="I306" s="0"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11510,11 +11515,11 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11916,7 +11921,7 @@
       <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="2" t="s">
         <v>977</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -11942,25 +11947,25 @@
       <c r="C15" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="2" t="n">
         <f aca="false">(B15/B$31)*100</f>
         <v>21.6828478964401</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="2" t="n">
         <f aca="false">(C15/C$31)*100</f>
         <v>19.2389006342495</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
         <f aca="false">(D15/D$31)*100</f>
         <v>18.125</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="2" t="n">
         <f aca="false">(E15/E$31)*100</f>
         <v>19.2546583850932</v>
       </c>
@@ -11975,25 +11980,25 @@
       <c r="C16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <f aca="false">(B16/B$31)*100</f>
         <v>3.88349514563107</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="2" t="n">
         <f aca="false">(C16/C$31)*100</f>
         <v>3.59408033826638</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <f aca="false">(D16/D$31)*100</f>
         <v>5</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="2" t="n">
         <f aca="false">(E16/E$31)*100</f>
         <v>3.72670807453416</v>
       </c>
@@ -12008,25 +12013,25 @@
       <c r="C17" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <f aca="false">(B17/B$31)*100</f>
         <v>19.0938511326861</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="2" t="n">
         <f aca="false">(C17/C$31)*100</f>
         <v>22.8329809725159</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
         <f aca="false">(D17/D$31)*100</f>
         <v>20</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="2" t="n">
         <f aca="false">(E17/E$31)*100</f>
         <v>18.0124223602484</v>
       </c>
@@ -12041,25 +12046,25 @@
       <c r="C18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="2" t="n">
         <f aca="false">(B18/B$31)*100</f>
         <v>5.17799352750809</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="2" t="n">
         <f aca="false">(C18/C$31)*100</f>
         <v>4.22832980972516</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
         <f aca="false">(D18/D$31)*100</f>
         <v>7.5</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="2" t="n">
         <f aca="false">(E18/E$31)*100</f>
         <v>1.86335403726708</v>
       </c>
@@ -12074,25 +12079,25 @@
       <c r="C19" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="2" t="n">
         <f aca="false">(B19/B$31)*100</f>
         <v>1.29449838187702</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="2" t="n">
         <f aca="false">(C19/C$31)*100</f>
         <v>1.90274841437632</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
         <f aca="false">(D19/D$31)*100</f>
         <v>1.25</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="2" t="n">
         <f aca="false">(E19/E$31)*100</f>
         <v>1.86335403726708</v>
       </c>
@@ -12107,25 +12112,25 @@
       <c r="C20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="2" t="n">
         <f aca="false">(B20/B$31)*100</f>
         <v>4.53074433656958</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="2" t="n">
         <f aca="false">(C20/C$31)*100</f>
         <v>4.22832980972516</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="2" t="n">
         <f aca="false">(D20/D$31)*100</f>
         <v>3.125</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="2" t="n">
         <f aca="false">(E20/E$31)*100</f>
         <v>2.48447204968944</v>
       </c>
@@ -12140,25 +12145,25 @@
       <c r="C21" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="2" t="n">
         <f aca="false">(B21/B$31)*100</f>
         <v>3.88349514563107</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="2" t="n">
         <f aca="false">(C21/C$31)*100</f>
         <v>2.95983086680761</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="2" t="n">
         <f aca="false">(D21/D$31)*100</f>
         <v>4.375</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="2" t="n">
         <f aca="false">(E21/E$31)*100</f>
         <v>5.59006211180124</v>
       </c>
@@ -12173,25 +12178,25 @@
       <c r="C22" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="2" t="n">
         <f aca="false">(B22/B$31)*100</f>
         <v>13.2686084142395</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="2" t="n">
         <f aca="false">(C22/C$31)*100</f>
         <v>16.0676532769556</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="2" t="n">
         <f aca="false">(D22/D$31)*100</f>
         <v>10.625</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="2" t="n">
         <f aca="false">(E22/E$31)*100</f>
         <v>14.9068322981366</v>
       </c>
@@ -12206,25 +12211,25 @@
       <c r="C23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="2" t="n">
         <f aca="false">(B23/B$31)*100</f>
         <v>3.55987055016181</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="2" t="n">
         <f aca="false">(C23/C$31)*100</f>
         <v>4.43974630021142</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="2" t="n">
         <f aca="false">(D23/D$31)*100</f>
         <v>3.125</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="2" t="n">
         <f aca="false">(E23/E$31)*100</f>
         <v>1.86335403726708</v>
       </c>
@@ -12239,25 +12244,25 @@
       <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="2" t="n">
         <f aca="false">(B24/B$31)*100</f>
         <v>1.29449838187702</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="2" t="n">
         <f aca="false">(C24/C$31)*100</f>
         <v>0.211416490486258</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="2" t="n">
         <f aca="false">(D24/D$31)*100</f>
         <v>1.875</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="2" t="n">
         <f aca="false">(E24/E$31)*100</f>
         <v>2.48447204968944</v>
       </c>
@@ -12272,25 +12277,25 @@
       <c r="C25" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <f aca="false">(B25/B$31)*100</f>
         <v>1.94174757281553</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="2" t="n">
         <f aca="false">(C25/C$31)*100</f>
         <v>2.53699788583509</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="2" t="n">
         <f aca="false">(D25/D$31)*100</f>
         <v>1.25</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="2" t="n">
         <f aca="false">(E25/E$31)*100</f>
         <v>0.62111801242236</v>
       </c>
@@ -12305,25 +12310,25 @@
       <c r="C26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="2" t="n">
         <f aca="false">(B26/B$31)*100</f>
         <v>2.26537216828479</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="2" t="n">
         <f aca="false">(C26/C$31)*100</f>
         <v>2.11416490486258</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="2" t="n">
         <f aca="false">(D26/D$31)*100</f>
         <v>3.125</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="2" t="n">
         <f aca="false">(E26/E$31)*100</f>
         <v>2.48447204968944</v>
       </c>
@@ -12338,25 +12343,25 @@
       <c r="C27" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="2" t="n">
         <f aca="false">(B27/B$31)*100</f>
         <v>6.79611650485437</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="2" t="n">
         <f aca="false">(C27/C$31)*100</f>
         <v>6.34249471458774</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="2" t="n">
         <f aca="false">(D27/D$31)*100</f>
         <v>5</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="2" t="n">
         <f aca="false">(E27/E$31)*100</f>
         <v>6.2111801242236</v>
       </c>
@@ -12371,25 +12376,25 @@
       <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="2" t="n">
         <f aca="false">(B28/B$31)*100</f>
         <v>1.61812297734628</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="2" t="n">
         <f aca="false">(C28/C$31)*100</f>
         <v>0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="2" t="n">
         <f aca="false">(D28/D$31)*100</f>
         <v>1.25</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="2" t="n">
         <f aca="false">(E28/E$31)*100</f>
         <v>4.96894409937888</v>
       </c>
@@ -12404,25 +12409,25 @@
       <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="2" t="n">
         <f aca="false">(B29/B$31)*100</f>
         <v>0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="2" t="n">
         <f aca="false">(C29/C$31)*100</f>
         <v>0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="2" t="n">
         <f aca="false">(D29/D$31)*100</f>
         <v>0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="2" t="n">
         <f aca="false">(E29/E$31)*100</f>
         <v>0</v>
       </c>
@@ -12437,62 +12442,62 @@
       <c r="C30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="2" t="n">
         <f aca="false">(B30/B$31)*100</f>
         <v>9.70873786407767</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="2" t="n">
         <f aca="false">(C30/C$31)*100</f>
         <v>9.30232558139535</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="2" t="n">
         <f aca="false">(D30/D$31)*100</f>
         <v>14.375</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="2" t="n">
         <f aca="false">(E30/E$31)*100</f>
         <v>13.6645962732919</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <f aca="false">SUM(B15:B30)</f>
         <v>309</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <f aca="false">SUM(C15:C30)</f>
         <v>473</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="2" t="n">
         <f aca="false">SUM(D15:D30)</f>
         <v>160</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="2" t="n">
         <f aca="false">SUM(E15:E30)</f>
         <v>161</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="2" t="n">
         <f aca="false">(B31/B$31)*100</f>
         <v>100</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="2" t="n">
         <f aca="false">(C31/C$31)*100</f>
         <v>100</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="2" t="n">
         <f aca="false">(D31/D$31)*100</f>
         <v>100</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="2" t="n">
         <f aca="false">(E31/E$31)*100</f>
         <v>100</v>
       </c>
@@ -12500,7 +12505,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
@@ -2963,9 +2963,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -3032,7 +3033,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3042,6 +3043,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3068,7 +3073,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3680,7 +3685,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3992,7 +3997,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
@@ -11516,10 +11521,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11961,7 +11966,7 @@
         <f aca="false">(C15/C$31)*100</f>
         <v>19.2389006342495</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <f aca="false">(D15/D$31)*100</f>
         <v>18.125</v>
       </c>
@@ -11994,7 +11999,7 @@
         <f aca="false">(C16/C$31)*100</f>
         <v>3.59408033826638</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false">(D16/D$31)*100</f>
         <v>5</v>
       </c>
@@ -12027,7 +12032,7 @@
         <f aca="false">(C17/C$31)*100</f>
         <v>22.8329809725159</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <f aca="false">(D17/D$31)*100</f>
         <v>20</v>
       </c>
@@ -12060,7 +12065,7 @@
         <f aca="false">(C18/C$31)*100</f>
         <v>4.22832980972516</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <f aca="false">(D18/D$31)*100</f>
         <v>7.5</v>
       </c>
@@ -12093,7 +12098,7 @@
         <f aca="false">(C19/C$31)*100</f>
         <v>1.90274841437632</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <f aca="false">(D19/D$31)*100</f>
         <v>1.25</v>
       </c>
@@ -12126,7 +12131,7 @@
         <f aca="false">(C20/C$31)*100</f>
         <v>4.22832980972516</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3" t="n">
         <f aca="false">(D20/D$31)*100</f>
         <v>3.125</v>
       </c>
@@ -12159,7 +12164,7 @@
         <f aca="false">(C21/C$31)*100</f>
         <v>2.95983086680761</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <f aca="false">(D21/D$31)*100</f>
         <v>4.375</v>
       </c>
@@ -12192,7 +12197,7 @@
         <f aca="false">(C22/C$31)*100</f>
         <v>16.0676532769556</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3" t="n">
         <f aca="false">(D22/D$31)*100</f>
         <v>10.625</v>
       </c>
@@ -12225,7 +12230,7 @@
         <f aca="false">(C23/C$31)*100</f>
         <v>4.43974630021142</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="3" t="n">
         <f aca="false">(D23/D$31)*100</f>
         <v>3.125</v>
       </c>
@@ -12258,7 +12263,7 @@
         <f aca="false">(C24/C$31)*100</f>
         <v>0.211416490486258</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="3" t="n">
         <f aca="false">(D24/D$31)*100</f>
         <v>1.875</v>
       </c>
@@ -12291,7 +12296,7 @@
         <f aca="false">(C25/C$31)*100</f>
         <v>2.53699788583509</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3" t="n">
         <f aca="false">(D25/D$31)*100</f>
         <v>1.25</v>
       </c>
@@ -12324,7 +12329,7 @@
         <f aca="false">(C26/C$31)*100</f>
         <v>2.11416490486258</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3" t="n">
         <f aca="false">(D26/D$31)*100</f>
         <v>3.125</v>
       </c>
@@ -12357,7 +12362,7 @@
         <f aca="false">(C27/C$31)*100</f>
         <v>6.34249471458774</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="3" t="n">
         <f aca="false">(D27/D$31)*100</f>
         <v>5</v>
       </c>
@@ -12390,7 +12395,7 @@
         <f aca="false">(C28/C$31)*100</f>
         <v>0</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="3" t="n">
         <f aca="false">(D28/D$31)*100</f>
         <v>1.25</v>
       </c>
@@ -12423,7 +12428,7 @@
         <f aca="false">(C29/C$31)*100</f>
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="3" t="n">
         <f aca="false">(D29/D$31)*100</f>
         <v>0</v>
       </c>
@@ -12456,7 +12461,7 @@
         <f aca="false">(C30/C$31)*100</f>
         <v>9.30232558139535</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="3" t="n">
         <f aca="false">(D30/D$31)*100</f>
         <v>14.375</v>
       </c>

--- a/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/BY_GO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="organizingCC" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="983">
   <si>
     <t xml:space="preserve">102_BY_T00_GF</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroplast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitochondria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endoplasmic r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi</t>
   </si>
   <si>
     <t xml:space="preserve">102_Peptides</t>
@@ -3073,7 +3088,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3679,13 +3694,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3973,6 +3988,54 @@
       <c r="K8" s="1" t="n">
         <f aca="false">SUM(K2:K7)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4060,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
@@ -4013,7 +4076,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4022,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4031,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -4040,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -4054,37 +4117,37 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,37 +4155,37 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,39 +4194,39 @@
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">25+SUM(D37:D39)</f>
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">77+SUM(G37:G39)</f>
         <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,38 +4235,38 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">7+SUM(D41:D43)</f>
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,37 +4274,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,37 +4313,37 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,37 +4351,37 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,37 +4389,37 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,37 +4427,37 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,37 +4465,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,38 +4504,38 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="n">
         <f aca="false">2+SUM(G33:G35)</f>
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,37 +4544,37 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,40 +4583,40 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(D19:D26)</f>
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="n">
         <f aca="false">SUM(G19:G28)</f>
         <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">SUM(J20:J28)</f>
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,37 +4624,37 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,37 +4662,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4701,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">SUM(D50:D56)</f>
@@ -4646,14 +4709,14 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="n">
         <f aca="false">SUM(G50:G56)</f>
         <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">SUM(J50:J56)</f>
@@ -4661,7 +4724,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,28 +4732,28 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4701,37 +4764,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,29 +4802,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,37 +4832,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,37 +4870,37 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,28 +4908,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,37 +4937,37 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,37 +4975,37 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,28 +5013,28 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="J27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,28 +5042,28 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,28 +5104,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,37 +5133,37 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,19 +5171,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,37 +5194,37 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>5</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,37 +5232,37 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,28 +5270,28 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>7</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,37 +5303,37 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,37 +5341,37 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,19 +5379,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5351,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5367,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,10 +5441,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5389,10 +5452,10 @@
         <v>4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,19 +5463,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,37 +5491,37 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,37 +5529,37 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,37 +5567,37 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>7</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,37 +5605,37 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>7</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,37 +5643,37 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>7</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,37 +5681,37 @@
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,37 +5719,37 @@
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,37 +5757,37 @@
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -5735,37 +5798,37 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,37 +5836,37 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,37 +5874,37 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5849,37 +5912,37 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,37 +5950,37 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,37 +5988,37 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,37 +6026,37 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,37 +6064,37 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,37 +6102,37 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,37 +6140,37 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,37 +6178,37 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,37 +6216,37 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,37 +6254,37 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,37 +6292,37 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,37 +6330,37 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,37 +6368,37 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,37 +6406,37 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,37 +6444,37 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,37 +6482,37 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,37 +6520,37 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,37 +6558,37 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,37 +6596,37 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,37 +6634,37 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="J80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,37 +6672,37 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,37 +6710,37 @@
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,37 +6748,37 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,37 +6786,37 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,37 +6824,37 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="J85" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,37 +6862,37 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6837,37 +6900,37 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,37 +6938,37 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,37 +6976,37 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,37 +7014,37 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,37 +7052,37 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,37 +7090,37 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,37 +7128,37 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,37 +7166,37 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="J94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,37 +7204,37 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,37 +7242,37 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,37 +7280,37 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,37 +7318,37 @@
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,37 +7356,37 @@
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="J99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,37 +7394,37 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,37 +7432,37 @@
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,37 +7470,37 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,37 +7508,37 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,37 +7546,37 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,37 +7584,37 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,37 +7622,37 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,37 +7660,37 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,37 +7698,37 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,37 +7736,37 @@
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7711,37 +7774,37 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,37 +7812,37 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,37 +7850,37 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,37 +7888,37 @@
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,37 +7926,37 @@
         <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,37 +7964,37 @@
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,37 +8002,37 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="J116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7977,37 +8040,37 @@
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J117" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,37 +8078,37 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="J118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,37 +8116,37 @@
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J119" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,37 +8154,37 @@
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8129,37 +8192,37 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="J121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8167,37 +8230,37 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="J122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,37 +8268,37 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="J123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,37 +8306,37 @@
         <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="J124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8281,37 +8344,37 @@
         <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,37 +8382,37 @@
         <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,37 +8420,37 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="J127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,37 +8458,37 @@
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="J128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,37 +8496,37 @@
         <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8471,37 +8534,37 @@
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8509,37 +8572,37 @@
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8547,37 +8610,37 @@
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="J132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,37 +8648,37 @@
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,37 +8686,37 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="J134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8661,37 +8724,37 @@
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="J135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,37 +8762,37 @@
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8737,37 +8800,37 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="J137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,37 +8838,37 @@
         <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="J138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8813,37 +8876,37 @@
         <v>1</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,37 +8914,37 @@
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="J140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,37 +8952,37 @@
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="J141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,37 +8990,37 @@
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="J142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8965,37 +9028,37 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="J143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9003,37 +9066,37 @@
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9041,37 +9104,37 @@
         <v>1</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="J145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9079,37 +9142,37 @@
         <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="J146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,37 +9180,37 @@
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="J147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9155,37 +9218,37 @@
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="J148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9193,37 +9256,37 @@
         <v>1</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,37 +9294,37 @@
         <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="J150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,37 +9332,37 @@
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="J151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9307,37 +9370,37 @@
         <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,37 +9408,37 @@
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L153" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D153" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G153" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J153" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9383,37 +9446,37 @@
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,28 +9484,28 @@
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -9453,19 +9516,19 @@
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9473,19 +9536,19 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,19 +9556,19 @@
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,19 +9576,19 @@
         <v>1</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9533,19 +9596,19 @@
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9553,19 +9616,19 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,19 +9636,19 @@
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,19 +9656,19 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9613,19 +9676,19 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,19 +9696,19 @@
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,19 +9716,19 @@
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9673,19 +9736,19 @@
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,19 +9756,19 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9713,19 +9776,19 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9736,10 +9799,10 @@
         <v>1</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,19 +9810,19 @@
         <v>1</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9767,19 +9830,19 @@
         <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,19 +9850,19 @@
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9807,19 +9870,19 @@
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9827,19 +9890,19 @@
         <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,19 +9910,19 @@
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,19 +9930,19 @@
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9887,19 +9950,19 @@
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9907,19 +9970,19 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,19 +9990,19 @@
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,19 +10010,19 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9967,19 +10030,19 @@
         <v>1</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9987,19 +10050,19 @@
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,19 +10070,19 @@
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10027,19 +10090,19 @@
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10047,19 +10110,19 @@
         <v>1</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,19 +10130,19 @@
         <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10087,19 +10150,19 @@
         <v>1</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,19 +10170,19 @@
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10127,19 +10190,19 @@
         <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10147,19 +10210,19 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,19 +10230,19 @@
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10187,19 +10250,19 @@
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10207,19 +10270,19 @@
         <v>1</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,19 +10290,19 @@
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10247,19 +10310,19 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,19 +10330,19 @@
         <v>1</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10287,19 +10350,19 @@
         <v>1</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G198" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10307,19 +10370,19 @@
         <v>1</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10327,19 +10390,19 @@
         <v>1</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G200" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10358,10 +10421,10 @@
         <v>1</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,10 +10432,10 @@
         <v>1</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10380,10 +10443,10 @@
         <v>1</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,10 +10454,10 @@
         <v>1</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10402,10 +10465,10 @@
         <v>1</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,10 +10476,10 @@
         <v>1</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10435,10 +10498,10 @@
         <v>1</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10446,10 +10509,10 @@
         <v>1</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,10 +10520,10 @@
         <v>1</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10468,10 +10531,10 @@
         <v>1</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10479,10 +10542,10 @@
         <v>1</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,10 +10553,10 @@
         <v>1</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,10 +10564,10 @@
         <v>1</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10512,10 +10575,10 @@
         <v>1</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10523,10 +10586,10 @@
         <v>1</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,10 +10597,10 @@
         <v>1</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10545,10 +10608,10 @@
         <v>1</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10556,10 +10619,10 @@
         <v>1</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10567,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10578,10 +10641,10 @@
         <v>1</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,10 +10652,10 @@
         <v>1</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10600,10 +10663,10 @@
         <v>1</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,10 +10674,10 @@
         <v>1</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,10 +10685,10 @@
         <v>1</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,10 +10696,10 @@
         <v>1</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10644,10 +10707,10 @@
         <v>1</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10655,10 +10718,10 @@
         <v>1</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10666,10 +10729,10 @@
         <v>1</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,10 +10740,10 @@
         <v>1</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,10 +10751,10 @@
         <v>1</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10699,10 +10762,10 @@
         <v>1</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10710,10 +10773,10 @@
         <v>1</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,10 +10784,10 @@
         <v>1</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10732,10 +10795,10 @@
         <v>1</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10743,10 +10806,10 @@
         <v>1</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10754,10 +10817,10 @@
         <v>1</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,10 +10828,10 @@
         <v>1</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,10 +10839,10 @@
         <v>1</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10787,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10798,10 +10861,10 @@
         <v>1</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10809,10 +10872,10 @@
         <v>1</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10820,10 +10883,10 @@
         <v>1</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10831,10 +10894,10 @@
         <v>1</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,10 +10905,10 @@
         <v>1</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,10 +10916,10 @@
         <v>1</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,10 +10927,10 @@
         <v>1</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10875,10 +10938,10 @@
         <v>1</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10886,10 +10949,10 @@
         <v>1</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10897,10 +10960,10 @@
         <v>1</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10908,10 +10971,10 @@
         <v>1</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10919,10 +10982,10 @@
         <v>1</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10930,10 +10993,10 @@
         <v>1</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10941,10 +11004,10 @@
         <v>1</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10952,10 +11015,10 @@
         <v>1</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10963,10 +11026,10 @@
         <v>1</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10974,10 +11037,10 @@
         <v>1</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10985,10 +11048,10 @@
         <v>1</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10996,10 +11059,10 @@
         <v>1</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,10 +11070,10 @@
         <v>1</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11018,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,10 +11092,10 @@
         <v>1</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11040,10 +11103,10 @@
         <v>1</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11051,10 +11114,10 @@
         <v>1</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11062,10 +11125,10 @@
         <v>1</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,10 +11136,10 @@
         <v>1</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11084,10 +11147,10 @@
         <v>1</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,10 +11158,10 @@
         <v>1</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11106,10 +11169,10 @@
         <v>1</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,10 +11180,10 @@
         <v>1</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11128,10 +11191,10 @@
         <v>1</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11139,10 +11202,10 @@
         <v>1</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,10 +11213,10 @@
         <v>1</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11161,10 +11224,10 @@
         <v>1</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11172,10 +11235,10 @@
         <v>1</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11183,10 +11246,10 @@
         <v>1</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11194,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,10 +11268,10 @@
         <v>1</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11227,10 +11290,10 @@
         <v>1</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11238,10 +11301,10 @@
         <v>1</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11249,10 +11312,10 @@
         <v>1</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11260,10 +11323,10 @@
         <v>1</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11271,10 +11334,10 @@
         <v>1</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11282,10 +11345,10 @@
         <v>1</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,10 +11356,10 @@
         <v>1</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,10 +11367,10 @@
         <v>1</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11315,10 +11378,10 @@
         <v>1</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11326,10 +11389,10 @@
         <v>1</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11337,10 +11400,10 @@
         <v>1</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11348,10 +11411,10 @@
         <v>1</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,10 +11422,10 @@
         <v>1</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11370,10 +11433,10 @@
         <v>1</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11381,10 +11444,10 @@
         <v>1</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,10 +11455,10 @@
         <v>1</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11403,10 +11466,10 @@
         <v>1</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,10 +11477,10 @@
         <v>1</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11425,10 +11488,10 @@
         <v>1</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11436,10 +11499,10 @@
         <v>1</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11447,10 +11510,10 @@
         <v>1</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11458,10 +11521,10 @@
         <v>1</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11469,10 +11532,10 @@
         <v>1</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11480,10 +11543,10 @@
         <v>1</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11491,10 +11554,10 @@
         <v>1</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,11 +11583,11 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11560,7 +11623,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>67</v>
@@ -11575,7 +11638,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">B2/B$12*100</f>
@@ -11596,7 +11659,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>42</v>
@@ -11611,7 +11674,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">B3/B$12*100</f>
@@ -11632,7 +11695,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>41</v>
@@ -11647,7 +11710,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">B4/B$12*100</f>
@@ -11668,7 +11731,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>12</v>
@@ -11683,7 +11746,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">B5/B$12*100</f>
@@ -11704,7 +11767,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>12</v>
@@ -11719,7 +11782,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">B6/B$12*100</f>
@@ -11740,7 +11803,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>11</v>
@@ -11755,7 +11818,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">B7/B$12*100</f>
@@ -11776,7 +11839,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10</v>
@@ -11791,7 +11854,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">B8/B$12*100</f>
@@ -11812,7 +11875,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -11827,7 +11890,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="n">
         <f aca="false">B9/B$12*100</f>
@@ -11848,7 +11911,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
@@ -11863,7 +11926,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="n">
         <f aca="false">B10/B$12*100</f>
@@ -11927,7 +11990,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>54</v>
@@ -11944,7 +12007,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>67</v>
@@ -11977,7 +12040,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>12</v>
@@ -12010,7 +12073,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>59</v>
@@ -12043,7 +12106,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>16</v>
@@ -12076,7 +12139,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>4</v>
@@ -12109,7 +12172,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>14</v>
@@ -12142,7 +12205,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -12175,7 +12238,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>41</v>
@@ -12208,7 +12271,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>11</v>
@@ -12241,7 +12304,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>4</v>
@@ -12274,7 +12337,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>6</v>
@@ -12307,7 +12370,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>7</v>
@@ -12340,7 +12403,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>21</v>
@@ -12373,7 +12436,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>5</v>
@@ -12406,7 +12469,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>0</v>
@@ -12439,7 +12502,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>30</v>
